--- a/Doble_Rendija/Actividad 1 doble rendija izq.xlsx
+++ b/Doble_Rendija/Actividad 1 doble rendija izq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\Lab_intermedio\COD-INTERMEDIO\Doble_Rendija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38BD2EC1-7A8D-4E73-A3A2-29E4AB0A2924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6597D92D-EEBC-4F7D-B990-3EF0DC77E010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D424A4F3-473F-4227-845C-1D8846626E81}"/>
   </bookViews>
@@ -111,6 +111,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Rendija</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> izq</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1850,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8158EEA7-B9CC-4841-A6E1-18038815D6EB}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="182" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
